--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_c_d_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_c_d_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>Correct</t>
   </si>
@@ -223,28 +223,61 @@
     <t>Depends on your gender identity</t>
   </si>
   <si>
-    <t>Set B will have a larger standard deviation</t>
-  </si>
-  <si>
-    <t>Set B will have a larger standard deviation of the mean</t>
-  </si>
-  <si>
-    <t>The mean value for set B will have a larger uncertainty</t>
-  </si>
-  <si>
-    <t>The probability that a new single data point will land within a standard deviation is smaller for set B</t>
-  </si>
-  <si>
-    <t>Set B will have a larger "t-score"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency. </t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
-    <t>True or False: Set B will have a larger standard deviation</t>
+    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: Set B will have a larger standard deviation</t>
+  </si>
+  <si>
+    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.   True or False: Set B will have a larger "t-score".</t>
+  </si>
+  <si>
+    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: If you take one more data point, the probability that a new single data point will land within a standard deviation is smaller for set B.</t>
+  </si>
+  <si>
+    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: The mean value for set B will have a larger uncertainty</t>
+  </si>
+  <si>
+    <t>Standard deviation is the average distance of a point from the mean.  If the scatter and central tendency are the same (that is, the points are scattered in a similar fashion around the mean), the Standard Deviation will be the same.</t>
+  </si>
+  <si>
+    <t>The SDM is the Sdev divided by the square of N, the number of data points.  Since N is smaller for set B, its SDM will be larger: that is, if you retook data set B you would be less confident that the new mean would be close to the old mean (compared to if you retook data set A).</t>
+  </si>
+  <si>
+    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: Set B will have a larger standard deviation of the mean</t>
+  </si>
+  <si>
+    <t>The t-score is a function of v = N-1.  It will tend to be larger when N is smaller, because we are less sure of the validity of our data when we have a smaller number of data points.</t>
+  </si>
+  <si>
+    <t>Even though the standard deviations are the same, the t-score for set B is larger, so the uncertainty (t * SD) will be larger.  Again, this is because while the data shows the same scatter and central tendency, we are less sure that the data is repeatable, so the uncertainty has to be larger.</t>
+  </si>
+  <si>
+    <t>This is the uncertainty value that we will use most often: t*SDM.  It represents the chance that if we retook the whole data set that the new mean value would lie within the uncertainty range.</t>
+  </si>
+  <si>
+    <t>How many data points do you need to have "t" essentially equal to "z"?  In other words, how many data points before adding more data points will not significantly improve your confidence level?</t>
+  </si>
+  <si>
+    <t>You are measuring the height of the tallest man on earth.  With a ladder.  You take 14 measurements of his height, and have a standard deviation of 17.2 mm.  You want to have a confidence level of 90%.  What is the t-score in this situation?  Use the t-score calculator directly above this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember that v = N -1 </t>
+  </si>
+  <si>
+    <t>Make sure that you are using the correct less-than-more-than equation from the dropdown.  We want the "two-tailed" version--both sides of the normal distribution.</t>
+  </si>
+  <si>
+    <t>See the video to see how to enter the values</t>
+  </si>
+  <si>
+    <t>You are measuring the height of the tallest woman on earth.  Also with a ladder.  You take 4 measurements of her height, and have a standard deviation of 14.0 mm.  You want to have a confidence level of 95%.  What is the uncertainty in the mean value of your measurement (in mm)?</t>
+  </si>
+  <si>
+    <t>Remember that v = N -1</t>
+  </si>
+  <si>
+    <t>Remember that when you want uncertainty in the mean value, you want to use SDM.</t>
   </si>
 </sst>
 </file>
@@ -625,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,10 +670,8 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,14 +679,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -679,7 +712,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1208,81 +1241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,32 +1264,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1335,12 +1295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,32 +1320,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1393,12 +1351,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,32 +1376,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1451,12 +1407,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,32 +1432,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1509,12 +1463,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,8 +1479,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1535,32 +1491,109 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1.7708999999999999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,8 +1616,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1593,31 +1628,31 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_c_d_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_c_d_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.   True or False: Set B will have a larger "t-score".</t>
   </si>
   <si>
-    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: If you take one more data point, the probability that a new single data point will land within a standard deviation is smaller for set B.</t>
-  </si>
-  <si>
     <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: The mean value for set B will have a larger uncertainty</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Remember that when you want uncertainty in the mean value, you want to use SDM.</t>
+  </si>
+  <si>
+    <t>You take two sets of data.  The first set A has 60 data points, and the second set B has 10 data points, but they have a similar scatter and central tendency.  True or False: If you take one more data point, the probability that a new single data point will land within a standard deviation of the mean is smaller for set B.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,13 +1266,13 @@
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,13 +1434,13 @@
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1556,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1578,21 +1578,21 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +1618,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1640,14 +1640,14 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
